--- a/out/CE/FigA_4.xlsx
+++ b/out/CE/FigA_4.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA6C4C6-7D41-435F-9A84-1D3F9D92BE6D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.80623</v>
+      </c>
+      <c r="B1">
+        <v>0.81605000000000005</v>
+      </c>
+      <c r="C1">
+        <v>0.80235999999999996</v>
+      </c>
+      <c r="D1">
+        <v>0.80462</v>
+      </c>
+      <c r="E1">
+        <v>0.80472999999999995</v>
+      </c>
+      <c r="F1">
+        <v>0.81528</v>
+      </c>
+      <c r="G1">
+        <v>0.79566000000000003</v>
+      </c>
+      <c r="H1">
+        <v>0.78561999999999999</v>
+      </c>
+      <c r="I1">
+        <v>0.79783000000000004</v>
+      </c>
+      <c r="J1">
+        <v>0.81001000000000001</v>
+      </c>
+      <c r="K1">
+        <v>0.82535000000000003</v>
+      </c>
+      <c r="L1">
+        <v>0.79954000000000003</v>
+      </c>
+      <c r="M1">
+        <v>0.80071999999999999</v>
+      </c>
+      <c r="N1">
+        <v>0.79461999999999999</v>
+      </c>
+      <c r="O1">
+        <v>0.80855999999999995</v>
+      </c>
+      <c r="P1">
+        <v>0.80703999999999998</v>
+      </c>
+      <c r="Q1">
+        <v>0.82755999999999996</v>
+      </c>
+      <c r="R1">
+        <v>0.79544999999999999</v>
+      </c>
+      <c r="S1">
+        <v>0.80928999999999995</v>
+      </c>
+      <c r="T1">
+        <v>0.80110999999999999</v>
+      </c>
+      <c r="U1">
+        <v>0.80954999999999999</v>
+      </c>
+      <c r="V1">
+        <v>0.81218999999999997</v>
+      </c>
+      <c r="W1">
+        <v>0.81460999999999995</v>
+      </c>
+      <c r="X1">
+        <v>0.79761000000000004</v>
+      </c>
+      <c r="Y1">
+        <v>0.81608999999999998</v>
+      </c>
+      <c r="Z1">
+        <v>0.81776000000000004</v>
+      </c>
+      <c r="AA1">
+        <v>0.81381999999999999</v>
+      </c>
+      <c r="AB1">
+        <v>0.81515000000000004</v>
+      </c>
+      <c r="AC1">
+        <v>0.79186999999999996</v>
+      </c>
+      <c r="AD1">
+        <v>0.78464999999999996</v>
+      </c>
+      <c r="AE1">
+        <v>0.77942</v>
+      </c>
+      <c r="AF1">
+        <v>0.82023999999999997</v>
+      </c>
+      <c r="AG1">
+        <v>0.79213</v>
+      </c>
+      <c r="AH1">
+        <v>0.79201999999999995</v>
+      </c>
+      <c r="AI1">
+        <v>0.80588000000000004</v>
+      </c>
+      <c r="AJ1">
+        <v>0.77817000000000003</v>
+      </c>
+      <c r="AK1">
+        <v>0.81347999999999998</v>
+      </c>
+      <c r="AL1">
+        <v>0.80237999999999998</v>
+      </c>
+      <c r="AM1">
+        <v>0.79500999999999999</v>
+      </c>
+      <c r="AN1">
+        <v>0.80345999999999995</v>
+      </c>
+      <c r="AO1">
+        <v>0.7984</v>
+      </c>
+      <c r="AP1">
+        <v>0.80557999999999996</v>
+      </c>
+      <c r="AQ1">
+        <v>0.78827000000000003</v>
+      </c>
+      <c r="AR1">
+        <v>0.79844999999999999</v>
+      </c>
+      <c r="AS1">
+        <v>0.81467999999999996</v>
+      </c>
+      <c r="AT1">
+        <v>0.78927999999999998</v>
+      </c>
+      <c r="AU1">
+        <v>0.80223</v>
+      </c>
+      <c r="AV1">
+        <v>0.80576000000000003</v>
+      </c>
+      <c r="AW1">
+        <v>0.81157000000000001</v>
+      </c>
+      <c r="AX1">
+        <v>0.81438999999999995</v>
+      </c>
+      <c r="AY1">
+        <v>0.80923</v>
+      </c>
+      <c r="AZ1">
+        <v>0.82188000000000005</v>
+      </c>
+      <c r="BA1">
+        <v>0.77102999999999999</v>
+      </c>
+      <c r="BB1">
+        <v>0.81045999999999996</v>
+      </c>
+      <c r="BC1">
+        <v>0.80822000000000005</v>
+      </c>
+      <c r="BD1">
+        <v>0.82728000000000002</v>
+      </c>
+      <c r="BE1">
+        <v>0.80645</v>
+      </c>
+      <c r="BF1">
+        <v>0.82047999999999999</v>
+      </c>
+      <c r="BG1">
+        <v>0.79922000000000004</v>
+      </c>
+      <c r="BH1">
+        <v>0.80703999999999998</v>
+      </c>
+      <c r="BI1">
+        <v>0.79510999999999998</v>
+      </c>
+      <c r="BJ1">
+        <v>0.78888000000000003</v>
+      </c>
+      <c r="BK1">
+        <v>0.80576000000000003</v>
+      </c>
+      <c r="BL1">
+        <v>0.78366999999999998</v>
+      </c>
+      <c r="BM1">
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="BN1">
+        <v>0.80903999999999998</v>
+      </c>
+      <c r="BO1">
+        <v>0.80656000000000005</v>
+      </c>
+      <c r="BP1">
+        <v>0.79895000000000005</v>
+      </c>
+      <c r="BQ1">
+        <v>0.78725000000000001</v>
+      </c>
+      <c r="BR1">
+        <v>0.79612000000000005</v>
+      </c>
+      <c r="BS1">
+        <v>0.80313999999999997</v>
+      </c>
+      <c r="BT1">
+        <v>0.76356000000000002</v>
+      </c>
+      <c r="BU1">
+        <v>0.78366999999999998</v>
+      </c>
+      <c r="BV1">
+        <v>0.81460999999999995</v>
+      </c>
+      <c r="BW1">
+        <v>0.81679000000000002</v>
+      </c>
+      <c r="BX1">
+        <v>0.82494999999999996</v>
+      </c>
+      <c r="BY1">
+        <v>0.82848999999999995</v>
+      </c>
+      <c r="BZ1">
+        <v>0.81198999999999999</v>
+      </c>
+      <c r="CA1">
+        <v>0.80896999999999997</v>
+      </c>
+      <c r="CB1">
+        <v>0.81149000000000004</v>
+      </c>
+      <c r="CC1">
+        <v>0.80940999999999996</v>
+      </c>
+      <c r="CD1">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="CE1">
+        <v>0.79566000000000003</v>
+      </c>
+      <c r="CF1">
+        <v>0.79273000000000005</v>
+      </c>
+      <c r="CG1">
+        <v>0.81891000000000003</v>
+      </c>
+      <c r="CH1">
+        <v>0.81808000000000003</v>
+      </c>
+      <c r="CI1">
+        <v>0.80471000000000004</v>
+      </c>
+      <c r="CJ1">
+        <v>0.81477999999999995</v>
+      </c>
+      <c r="CK1">
+        <v>0.81045999999999996</v>
+      </c>
+      <c r="CL1">
+        <v>0.79644000000000004</v>
+      </c>
+      <c r="CM1">
+        <v>0.81015000000000004</v>
+      </c>
+      <c r="CN1">
+        <v>0.76832999999999996</v>
+      </c>
+      <c r="CO1">
+        <v>0.80493999999999999</v>
+      </c>
+      <c r="CP1">
+        <v>0.77771000000000001</v>
+      </c>
+      <c r="CQ1">
+        <v>0.79722000000000004</v>
+      </c>
+      <c r="CR1">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="CS1">
+        <v>0.79856000000000005</v>
+      </c>
+      <c r="CT1">
+        <v>0.79457</v>
+      </c>
+      <c r="CU1">
+        <v>0.78854000000000002</v>
+      </c>
+      <c r="CV1">
+        <v>0.81462999999999997</v>
+      </c>
+      <c r="CW1">
+        <v>0.80331649999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.79352</v>
+      </c>
+      <c r="B2">
+        <v>0.79574</v>
+      </c>
+      <c r="C2">
+        <v>0.81252000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.79813000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.81245000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.78964999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0.79852999999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.78774</v>
+      </c>
+      <c r="J2">
+        <v>0.79351000000000005</v>
+      </c>
+      <c r="K2">
+        <v>0.79832999999999998</v>
+      </c>
+      <c r="L2">
+        <v>0.80115999999999998</v>
+      </c>
+      <c r="M2">
+        <v>0.79632999999999998</v>
+      </c>
+      <c r="N2">
+        <v>0.80506999999999995</v>
+      </c>
+      <c r="O2">
+        <v>0.82316</v>
+      </c>
+      <c r="P2">
+        <v>0.78742999999999996</v>
+      </c>
+      <c r="Q2">
+        <v>0.79254000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.79996999999999996</v>
+      </c>
+      <c r="S2">
+        <v>0.80288999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.79383999999999999</v>
+      </c>
+      <c r="U2">
+        <v>0.78312000000000004</v>
+      </c>
+      <c r="V2">
+        <v>0.80327000000000004</v>
+      </c>
+      <c r="W2">
+        <v>0.79923999999999995</v>
+      </c>
+      <c r="X2">
+        <v>0.76878999999999997</v>
+      </c>
+      <c r="Y2">
+        <v>0.78874999999999995</v>
+      </c>
+      <c r="Z2">
+        <v>0.79271999999999998</v>
+      </c>
+      <c r="AA2">
+        <v>0.79793999999999998</v>
+      </c>
+      <c r="AB2">
+        <v>0.77125999999999995</v>
+      </c>
+      <c r="AC2">
+        <v>0.81332000000000004</v>
+      </c>
+      <c r="AD2">
+        <v>0.77561000000000002</v>
+      </c>
+      <c r="AE2">
+        <v>0.79544000000000004</v>
+      </c>
+      <c r="AF2">
+        <v>0.80674000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>0.80989</v>
+      </c>
+      <c r="AH2">
+        <v>0.79173000000000004</v>
+      </c>
+      <c r="AI2">
+        <v>0.78841000000000006</v>
+      </c>
+      <c r="AJ2">
+        <v>0.80676999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.79437999999999998</v>
+      </c>
+      <c r="AL2">
+        <v>0.80798999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.80234000000000005</v>
+      </c>
+      <c r="AN2">
+        <v>0.79196</v>
+      </c>
+      <c r="AO2">
+        <v>0.79747000000000001</v>
+      </c>
+      <c r="AP2">
+        <v>0.79508999999999996</v>
+      </c>
+      <c r="AQ2">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="AR2">
+        <v>0.79507000000000005</v>
+      </c>
+      <c r="AS2">
+        <v>0.82362999999999997</v>
+      </c>
+      <c r="AT2">
+        <v>0.79927999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>0.78722999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.7873</v>
+      </c>
+      <c r="AW2">
+        <v>0.81216999999999995</v>
+      </c>
+      <c r="AX2">
+        <v>0.79891000000000001</v>
+      </c>
+      <c r="AY2">
+        <v>0.79696</v>
+      </c>
+      <c r="AZ2">
+        <v>0.81882999999999995</v>
+      </c>
+      <c r="BA2">
+        <v>0.81061000000000005</v>
+      </c>
+      <c r="BB2">
+        <v>0.79562999999999995</v>
+      </c>
+      <c r="BC2">
+        <v>0.81088000000000005</v>
+      </c>
+      <c r="BD2">
+        <v>0.78851000000000004</v>
+      </c>
+      <c r="BE2">
+        <v>0.78971000000000002</v>
+      </c>
+      <c r="BF2">
+        <v>0.79969000000000001</v>
+      </c>
+      <c r="BG2">
         <v>0.80796000000000001</v>
       </c>
-      <c r="B1">
-        <v>0.79479</v>
-      </c>
-      <c r="C1">
-        <v>0.80137499999999995</v>
+      <c r="BH2">
+        <v>0.78583000000000003</v>
+      </c>
+      <c r="BI2">
+        <v>0.78600999999999999</v>
+      </c>
+      <c r="BJ2">
+        <v>0.79827000000000004</v>
+      </c>
+      <c r="BK2">
+        <v>0.80335999999999996</v>
+      </c>
+      <c r="BL2">
+        <v>0.80772999999999995</v>
+      </c>
+      <c r="BM2">
+        <v>0.79496999999999995</v>
+      </c>
+      <c r="BN2">
+        <v>0.82189000000000001</v>
+      </c>
+      <c r="BO2">
+        <v>0.78391999999999995</v>
+      </c>
+      <c r="BP2">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="BQ2">
+        <v>0.79949000000000003</v>
+      </c>
+      <c r="BR2">
+        <v>0.77936000000000005</v>
+      </c>
+      <c r="BS2">
+        <v>0.78912000000000004</v>
+      </c>
+      <c r="BT2">
+        <v>0.79856000000000005</v>
+      </c>
+      <c r="BU2">
+        <v>0.81235999999999997</v>
+      </c>
+      <c r="BV2">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="BW2">
+        <v>0.78571999999999997</v>
+      </c>
+      <c r="BX2">
+        <v>0.80289999999999995</v>
+      </c>
+      <c r="BY2">
+        <v>0.79491999999999996</v>
+      </c>
+      <c r="BZ2">
+        <v>0.78598999999999997</v>
+      </c>
+      <c r="CA2">
+        <v>0.76834000000000002</v>
+      </c>
+      <c r="CB2">
+        <v>0.78561000000000003</v>
+      </c>
+      <c r="CC2">
+        <v>0.81127000000000005</v>
+      </c>
+      <c r="CD2">
+        <v>0.79484999999999995</v>
+      </c>
+      <c r="CE2">
+        <v>0.80108999999999997</v>
+      </c>
+      <c r="CF2">
+        <v>0.79517000000000004</v>
+      </c>
+      <c r="CG2">
+        <v>0.79791999999999996</v>
+      </c>
+      <c r="CH2">
+        <v>0.80232000000000003</v>
+      </c>
+      <c r="CI2">
+        <v>0.79706999999999995</v>
+      </c>
+      <c r="CJ2">
+        <v>0.80654000000000003</v>
+      </c>
+      <c r="CK2">
+        <v>0.78363000000000005</v>
+      </c>
+      <c r="CL2">
+        <v>0.78383999999999998</v>
+      </c>
+      <c r="CM2">
+        <v>0.80578000000000005</v>
+      </c>
+      <c r="CN2">
+        <v>0.80557000000000001</v>
+      </c>
+      <c r="CO2">
+        <v>0.78669</v>
+      </c>
+      <c r="CP2">
+        <v>0.80871000000000004</v>
+      </c>
+      <c r="CQ2">
+        <v>0.81318000000000001</v>
+      </c>
+      <c r="CR2">
+        <v>0.79388000000000003</v>
+      </c>
+      <c r="CS2">
+        <v>0.81884000000000001</v>
+      </c>
+      <c r="CT2">
+        <v>0.77368999999999999</v>
+      </c>
+      <c r="CU2">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="CV2">
+        <v>0.82303999999999999</v>
+      </c>
+      <c r="CW2">
+        <v>0.79752940000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.80350999999999995</v>
-      </c>
-      <c r="B2">
-        <v>0.79322999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.79837000000000002</v>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.78425</v>
+      </c>
+      <c r="B3">
+        <v>0.79285000000000005</v>
+      </c>
+      <c r="C3">
+        <v>0.78591</v>
+      </c>
+      <c r="D3">
+        <v>0.80679000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.77527000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.77307000000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.80418999999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.77376999999999996</v>
+      </c>
+      <c r="I3">
+        <v>0.76854</v>
+      </c>
+      <c r="J3">
+        <v>0.78788000000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.79032999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.78219000000000005</v>
+      </c>
+      <c r="N3">
+        <v>0.79520999999999997</v>
+      </c>
+      <c r="O3">
+        <v>0.77771999999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>0.80139000000000005</v>
+      </c>
+      <c r="R3">
+        <v>0.78063000000000005</v>
+      </c>
+      <c r="S3">
+        <v>0.77237999999999996</v>
+      </c>
+      <c r="T3">
+        <v>0.77914000000000005</v>
+      </c>
+      <c r="U3">
+        <v>0.77627999999999997</v>
+      </c>
+      <c r="V3">
+        <v>0.78627000000000002</v>
+      </c>
+      <c r="W3">
+        <v>0.79542000000000002</v>
+      </c>
+      <c r="X3">
+        <v>0.78227000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>0.77319000000000004</v>
+      </c>
+      <c r="Z3">
+        <v>0.78325999999999996</v>
+      </c>
+      <c r="AA3">
+        <v>0.79157</v>
+      </c>
+      <c r="AB3">
+        <v>0.79364000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.78515999999999997</v>
+      </c>
+      <c r="AD3">
+        <v>0.78898000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>0.79742999999999997</v>
+      </c>
+      <c r="AF3">
+        <v>0.80981000000000003</v>
+      </c>
+      <c r="AG3">
+        <v>0.78634000000000004</v>
+      </c>
+      <c r="AH3">
+        <v>0.78725000000000001</v>
+      </c>
+      <c r="AI3">
+        <v>0.79505000000000003</v>
+      </c>
+      <c r="AJ3">
+        <v>0.75402000000000002</v>
+      </c>
+      <c r="AK3">
+        <v>0.80745</v>
+      </c>
+      <c r="AL3">
+        <v>0.79166000000000003</v>
+      </c>
+      <c r="AM3">
+        <v>0.78859000000000001</v>
+      </c>
+      <c r="AN3">
+        <v>0.75836000000000003</v>
+      </c>
+      <c r="AO3">
+        <v>0.78422000000000003</v>
+      </c>
+      <c r="AP3">
+        <v>0.80896999999999997</v>
+      </c>
+      <c r="AQ3">
+        <v>0.77656000000000003</v>
+      </c>
+      <c r="AR3">
+        <v>0.78674999999999995</v>
+      </c>
+      <c r="AS3">
+        <v>0.77368999999999999</v>
+      </c>
+      <c r="AT3">
+        <v>0.78727999999999998</v>
+      </c>
+      <c r="AU3">
+        <v>0.80613000000000001</v>
+      </c>
+      <c r="AV3">
+        <v>0.79225000000000001</v>
+      </c>
+      <c r="AW3">
+        <v>0.76243000000000005</v>
+      </c>
+      <c r="AX3">
+        <v>0.79588999999999999</v>
+      </c>
+      <c r="AY3">
+        <v>0.77912999999999999</v>
+      </c>
+      <c r="AZ3">
+        <v>0.80464000000000002</v>
+      </c>
+      <c r="BA3">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="BB3">
+        <v>0.79178000000000004</v>
+      </c>
+      <c r="BC3">
+        <v>0.79832000000000003</v>
+      </c>
+      <c r="BD3">
+        <v>0.77044000000000001</v>
+      </c>
+      <c r="BE3">
+        <v>0.77573000000000003</v>
+      </c>
+      <c r="BF3">
+        <v>0.78444000000000003</v>
+      </c>
+      <c r="BG3">
+        <v>0.77071000000000001</v>
+      </c>
+      <c r="BH3">
+        <v>0.80318000000000001</v>
+      </c>
+      <c r="BI3">
+        <v>0.77734000000000003</v>
+      </c>
+      <c r="BJ3">
+        <v>0.77454000000000001</v>
+      </c>
+      <c r="BK3">
+        <v>0.77820999999999996</v>
+      </c>
+      <c r="BL3">
+        <v>0.77122000000000002</v>
+      </c>
+      <c r="BM3">
+        <v>0.77075000000000005</v>
+      </c>
+      <c r="BN3">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="BO3">
+        <v>0.78425999999999996</v>
+      </c>
+      <c r="BP3">
+        <v>0.77502000000000004</v>
+      </c>
+      <c r="BQ3">
+        <v>0.79771999999999998</v>
+      </c>
+      <c r="BR3">
+        <v>0.78695999999999999</v>
+      </c>
+      <c r="BS3">
+        <v>0.76931000000000005</v>
+      </c>
+      <c r="BT3">
+        <v>0.7923</v>
+      </c>
+      <c r="BU3">
+        <v>0.79879</v>
+      </c>
+      <c r="BV3">
+        <v>0.78283999999999998</v>
+      </c>
+      <c r="BW3">
+        <v>0.78286</v>
+      </c>
+      <c r="BX3">
+        <v>0.78225</v>
+      </c>
+      <c r="BY3">
+        <v>0.77986999999999995</v>
+      </c>
+      <c r="BZ3">
+        <v>0.80135000000000001</v>
+      </c>
+      <c r="CA3">
+        <v>0.79378000000000004</v>
+      </c>
+      <c r="CB3">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="CC3">
+        <v>0.76183000000000001</v>
+      </c>
+      <c r="CD3">
+        <v>0.81003999999999998</v>
+      </c>
+      <c r="CE3">
+        <v>0.77164999999999995</v>
+      </c>
+      <c r="CF3">
+        <v>0.79645999999999995</v>
+      </c>
+      <c r="CG3">
+        <v>0.78088000000000002</v>
+      </c>
+      <c r="CH3">
+        <v>0.78639000000000003</v>
+      </c>
+      <c r="CI3">
+        <v>0.7954</v>
+      </c>
+      <c r="CJ3">
+        <v>0.80905000000000005</v>
+      </c>
+      <c r="CK3">
+        <v>0.78261000000000003</v>
+      </c>
+      <c r="CL3">
+        <v>0.76183999999999996</v>
+      </c>
+      <c r="CM3">
+        <v>0.77303999999999995</v>
+      </c>
+      <c r="CN3">
+        <v>0.78402000000000005</v>
+      </c>
+      <c r="CO3">
+        <v>0.79944999999999999</v>
+      </c>
+      <c r="CP3">
+        <v>0.77231000000000005</v>
+      </c>
+      <c r="CQ3">
+        <v>0.80064000000000002</v>
+      </c>
+      <c r="CR3">
+        <v>0.79076000000000002</v>
+      </c>
+      <c r="CS3">
+        <v>0.79476999999999998</v>
+      </c>
+      <c r="CT3">
+        <v>0.77222000000000002</v>
+      </c>
+      <c r="CU3">
+        <v>0.77361999999999997</v>
+      </c>
+      <c r="CV3">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="CW3">
+        <v>0.78510499999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.79040999999999995</v>
-      </c>
-      <c r="B3">
-        <v>0.79435</v>
-      </c>
-      <c r="C3">
-        <v>0.79237999999999997</v>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.79976000000000003</v>
+      </c>
+      <c r="B4">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.77717999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.78873000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.78027999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.77398</v>
+      </c>
+      <c r="G4">
+        <v>0.76090999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.78552999999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.78205999999999998</v>
+      </c>
+      <c r="J4">
+        <v>0.75831000000000004</v>
+      </c>
+      <c r="K4">
+        <v>0.75995999999999997</v>
+      </c>
+      <c r="L4">
+        <v>0.77053000000000005</v>
+      </c>
+      <c r="M4">
+        <v>0.78800999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.78215000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.79859000000000002</v>
+      </c>
+      <c r="P4">
+        <v>0.79840999999999995</v>
+      </c>
+      <c r="Q4">
+        <v>0.79681000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="S4">
+        <v>0.77561000000000002</v>
+      </c>
+      <c r="T4">
+        <v>0.80239000000000005</v>
+      </c>
+      <c r="U4">
+        <v>0.78747</v>
+      </c>
+      <c r="V4">
+        <v>0.78761000000000003</v>
+      </c>
+      <c r="W4">
+        <v>0.80415000000000003</v>
+      </c>
+      <c r="X4">
+        <v>0.78071000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>0.76388</v>
+      </c>
+      <c r="Z4">
+        <v>0.78325999999999996</v>
+      </c>
+      <c r="AA4">
+        <v>0.76256999999999997</v>
+      </c>
+      <c r="AB4">
+        <v>0.76109000000000004</v>
+      </c>
+      <c r="AC4">
+        <v>0.80217000000000005</v>
+      </c>
+      <c r="AD4">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="AE4">
+        <v>0.80591000000000002</v>
+      </c>
+      <c r="AF4">
+        <v>0.76502999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>0.79688000000000003</v>
+      </c>
+      <c r="AH4">
+        <v>0.77256999999999998</v>
+      </c>
+      <c r="AI4">
+        <v>0.79356000000000004</v>
+      </c>
+      <c r="AJ4">
+        <v>0.77258000000000004</v>
+      </c>
+      <c r="AK4">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="AL4">
+        <v>0.79056000000000004</v>
+      </c>
+      <c r="AM4">
+        <v>0.78818999999999995</v>
+      </c>
+      <c r="AN4">
+        <v>0.77634000000000003</v>
+      </c>
+      <c r="AO4">
+        <v>0.78268000000000004</v>
+      </c>
+      <c r="AP4">
+        <v>0.78703999999999996</v>
+      </c>
+      <c r="AQ4">
+        <v>0.78908999999999996</v>
+      </c>
+      <c r="AR4">
+        <v>0.79629000000000005</v>
+      </c>
+      <c r="AS4">
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="AT4">
+        <v>0.79283999999999999</v>
+      </c>
+      <c r="AU4">
+        <v>0.75802999999999998</v>
+      </c>
+      <c r="AV4">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="AW4">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="AX4">
+        <v>0.76536999999999999</v>
+      </c>
+      <c r="AY4">
+        <v>0.77095999999999998</v>
+      </c>
+      <c r="AZ4">
+        <v>0.78286999999999995</v>
+      </c>
+      <c r="BA4">
+        <v>0.77490999999999999</v>
+      </c>
+      <c r="BB4">
+        <v>0.77844000000000002</v>
+      </c>
+      <c r="BC4">
+        <v>0.80596000000000001</v>
+      </c>
+      <c r="BD4">
+        <v>0.76632</v>
+      </c>
+      <c r="BE4">
+        <v>0.79501999999999995</v>
+      </c>
+      <c r="BF4">
+        <v>0.75244999999999995</v>
+      </c>
+      <c r="BG4">
+        <v>0.79657999999999995</v>
+      </c>
+      <c r="BH4">
+        <v>0.78517000000000003</v>
+      </c>
+      <c r="BI4">
+        <v>0.78698999999999997</v>
+      </c>
+      <c r="BJ4">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="BK4">
+        <v>0.79037999999999997</v>
+      </c>
+      <c r="BL4">
+        <v>0.78332999999999997</v>
+      </c>
+      <c r="BM4">
+        <v>0.77156000000000002</v>
+      </c>
+      <c r="BN4">
+        <v>0.75954999999999995</v>
+      </c>
+      <c r="BO4">
+        <v>0.79717000000000005</v>
+      </c>
+      <c r="BP4">
+        <v>0.79078999999999999</v>
+      </c>
+      <c r="BQ4">
+        <v>0.77178000000000002</v>
+      </c>
+      <c r="BR4">
+        <v>0.76178000000000001</v>
+      </c>
+      <c r="BS4">
+        <v>0.79318</v>
+      </c>
+      <c r="BT4">
+        <v>0.76229000000000002</v>
+      </c>
+      <c r="BU4">
+        <v>0.78964999999999996</v>
+      </c>
+      <c r="BV4">
+        <v>0.74382000000000004</v>
+      </c>
+      <c r="BW4">
+        <v>0.79978000000000005</v>
+      </c>
+      <c r="BX4">
+        <v>0.78632999999999997</v>
+      </c>
+      <c r="BY4">
+        <v>0.78569</v>
+      </c>
+      <c r="BZ4">
+        <v>0.80525000000000002</v>
+      </c>
+      <c r="CA4">
+        <v>0.79091</v>
+      </c>
+      <c r="CB4">
+        <v>0.78164</v>
+      </c>
+      <c r="CC4">
+        <v>0.79344000000000003</v>
+      </c>
+      <c r="CD4">
+        <v>0.76566999999999996</v>
+      </c>
+      <c r="CE4">
+        <v>0.80566000000000004</v>
+      </c>
+      <c r="CF4">
+        <v>0.78417999999999999</v>
+      </c>
+      <c r="CG4">
+        <v>0.76183999999999996</v>
+      </c>
+      <c r="CH4">
+        <v>0.79</v>
+      </c>
+      <c r="CI4">
+        <v>0.77803</v>
+      </c>
+      <c r="CJ4">
+        <v>0.77446999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.78686999999999996</v>
+      </c>
+      <c r="CL4">
+        <v>0.77568000000000004</v>
+      </c>
+      <c r="CM4">
+        <v>0.79105000000000003</v>
+      </c>
+      <c r="CN4">
+        <v>0.79676999999999998</v>
+      </c>
+      <c r="CO4">
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="CP4">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="CQ4">
+        <v>0.79805999999999999</v>
+      </c>
+      <c r="CR4">
+        <v>0.79544999999999999</v>
+      </c>
+      <c r="CS4">
+        <v>0.76161999999999996</v>
+      </c>
+      <c r="CT4">
+        <v>0.78337000000000001</v>
+      </c>
+      <c r="CU4">
+        <v>0.79052</v>
+      </c>
+      <c r="CV4">
+        <v>0.77466000000000002</v>
+      </c>
+      <c r="CW4">
+        <v>0.78300560000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.75514999999999999</v>
-      </c>
-      <c r="B4">
-        <v>0.79439000000000004</v>
-      </c>
-      <c r="C4">
-        <v>0.77476999999999996</v>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.77851999999999999</v>
+      </c>
+      <c r="B5">
+        <v>0.77493999999999996</v>
+      </c>
+      <c r="C5">
+        <v>0.76178999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.76717000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.76622000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.76039000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.80239000000000005</v>
+      </c>
+      <c r="H5">
+        <v>0.77468999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.77886999999999995</v>
+      </c>
+      <c r="J5">
+        <v>0.74399000000000004</v>
+      </c>
+      <c r="K5">
+        <v>0.77073999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.75495999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.76312000000000002</v>
+      </c>
+      <c r="N5">
+        <v>0.78039000000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.75297999999999998</v>
+      </c>
+      <c r="P5">
+        <v>0.76637999999999995</v>
+      </c>
+      <c r="Q5">
+        <v>0.77427999999999997</v>
+      </c>
+      <c r="R5">
+        <v>0.77148000000000005</v>
+      </c>
+      <c r="S5">
+        <v>0.77471000000000001</v>
+      </c>
+      <c r="T5">
+        <v>0.76651999999999998</v>
+      </c>
+      <c r="U5">
+        <v>0.77061999999999997</v>
+      </c>
+      <c r="V5">
+        <v>0.77744000000000002</v>
+      </c>
+      <c r="W5">
+        <v>0.79369000000000001</v>
+      </c>
+      <c r="X5">
+        <v>0.75946000000000002</v>
+      </c>
+      <c r="Y5">
+        <v>0.76217999999999997</v>
+      </c>
+      <c r="Z5">
+        <v>0.79210999999999998</v>
+      </c>
+      <c r="AA5">
+        <v>0.76929000000000003</v>
+      </c>
+      <c r="AB5">
+        <v>0.78119000000000005</v>
+      </c>
+      <c r="AC5">
+        <v>0.78103999999999996</v>
+      </c>
+      <c r="AD5">
+        <v>0.77741000000000005</v>
+      </c>
+      <c r="AE5">
+        <v>0.76961000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>0.77212000000000003</v>
+      </c>
+      <c r="AG5">
+        <v>0.76304000000000005</v>
+      </c>
+      <c r="AH5">
+        <v>0.76976</v>
+      </c>
+      <c r="AI5">
+        <v>0.74987999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="AK5">
+        <v>0.76739000000000002</v>
+      </c>
+      <c r="AL5">
+        <v>0.78651000000000004</v>
+      </c>
+      <c r="AM5">
+        <v>0.76805999999999996</v>
+      </c>
+      <c r="AN5">
+        <v>0.74075000000000002</v>
+      </c>
+      <c r="AO5">
+        <v>0.77317000000000002</v>
+      </c>
+      <c r="AP5">
+        <v>0.75534999999999997</v>
+      </c>
+      <c r="AQ5">
+        <v>0.76832</v>
+      </c>
+      <c r="AR5">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="AS5">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="AT5">
+        <v>0.79120999999999997</v>
+      </c>
+      <c r="AU5">
+        <v>0.79051000000000005</v>
+      </c>
+      <c r="AV5">
+        <v>0.80103999999999997</v>
+      </c>
+      <c r="AW5">
+        <v>0.75778999999999996</v>
+      </c>
+      <c r="AX5">
+        <v>0.78463000000000005</v>
+      </c>
+      <c r="AY5">
+        <v>0.75202000000000002</v>
+      </c>
+      <c r="AZ5">
+        <v>0.78100999999999998</v>
+      </c>
+      <c r="BA5">
+        <v>0.77376999999999996</v>
+      </c>
+      <c r="BB5">
+        <v>0.75817000000000001</v>
+      </c>
+      <c r="BC5">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="BD5">
+        <v>0.77885000000000004</v>
+      </c>
+      <c r="BE5">
+        <v>0.75838000000000005</v>
+      </c>
+      <c r="BF5">
+        <v>0.76705999999999996</v>
+      </c>
+      <c r="BG5">
+        <v>0.77952999999999995</v>
+      </c>
+      <c r="BH5">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="BI5">
+        <v>0.77017000000000002</v>
+      </c>
+      <c r="BJ5">
+        <v>0.76642999999999994</v>
+      </c>
+      <c r="BK5">
+        <v>0.78458000000000006</v>
+      </c>
+      <c r="BL5">
+        <v>0.78563000000000005</v>
+      </c>
+      <c r="BM5">
+        <v>0.77007999999999999</v>
+      </c>
+      <c r="BN5">
+        <v>0.77432999999999996</v>
+      </c>
+      <c r="BO5">
+        <v>0.76797000000000004</v>
+      </c>
+      <c r="BP5">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="BQ5">
+        <v>0.79635</v>
+      </c>
+      <c r="BR5">
+        <v>0.79323999999999995</v>
+      </c>
+      <c r="BS5">
+        <v>0.76897000000000004</v>
+      </c>
+      <c r="BT5">
+        <v>0.78864000000000001</v>
+      </c>
+      <c r="BU5">
+        <v>0.75000999999999995</v>
+      </c>
+      <c r="BV5">
+        <v>0.76946000000000003</v>
+      </c>
+      <c r="BW5">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="BX5">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="BY5">
+        <v>0.78974</v>
+      </c>
+      <c r="BZ5">
+        <v>0.77817999999999998</v>
+      </c>
+      <c r="CA5">
+        <v>0.76426000000000005</v>
+      </c>
+      <c r="CB5">
+        <v>0.77958000000000005</v>
+      </c>
+      <c r="CC5">
+        <v>0.77871000000000001</v>
+      </c>
+      <c r="CD5">
+        <v>0.76575000000000004</v>
+      </c>
+      <c r="CE5">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="CF5">
+        <v>0.76688000000000001</v>
+      </c>
+      <c r="CG5">
+        <v>0.77317999999999998</v>
+      </c>
+      <c r="CH5">
+        <v>0.78303</v>
+      </c>
+      <c r="CI5">
+        <v>0.78071999999999997</v>
+      </c>
+      <c r="CJ5">
+        <v>0.77346000000000004</v>
+      </c>
+      <c r="CK5">
+        <v>0.77009000000000005</v>
+      </c>
+      <c r="CL5">
+        <v>0.75438000000000005</v>
+      </c>
+      <c r="CM5">
+        <v>0.76761000000000001</v>
+      </c>
+      <c r="CN5">
+        <v>0.76375999999999999</v>
+      </c>
+      <c r="CO5">
+        <v>0.78174999999999994</v>
+      </c>
+      <c r="CP5">
+        <v>0.75366</v>
+      </c>
+      <c r="CQ5">
+        <v>0.77681999999999995</v>
+      </c>
+      <c r="CR5">
+        <v>0.76073000000000002</v>
+      </c>
+      <c r="CS5">
+        <v>0.78022000000000002</v>
+      </c>
+      <c r="CT5">
+        <v>0.77773000000000003</v>
+      </c>
+      <c r="CU5">
+        <v>0.76309000000000005</v>
+      </c>
+      <c r="CV5">
+        <v>0.77163999999999999</v>
+      </c>
+      <c r="CW5">
+        <v>0.77165820000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.77971999999999997</v>
-      </c>
-      <c r="B5">
-        <v>0.76629999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.77300999999999997</v>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.76192000000000004</v>
+      </c>
+      <c r="B6">
+        <v>0.77024000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.76482000000000006</v>
+      </c>
+      <c r="D6">
+        <v>0.75480999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.75446000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.78173000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.77942999999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.75385000000000002</v>
+      </c>
+      <c r="I6">
+        <v>0.78547</v>
+      </c>
+      <c r="J6">
+        <v>0.76248000000000005</v>
+      </c>
+      <c r="K6">
+        <v>0.77485999999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.74678</v>
+      </c>
+      <c r="M6">
+        <v>0.73338999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.75526000000000004</v>
+      </c>
+      <c r="O6">
+        <v>0.77415999999999996</v>
+      </c>
+      <c r="P6">
+        <v>0.76502999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.75070999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.77473999999999998</v>
+      </c>
+      <c r="S6">
+        <v>0.76027</v>
+      </c>
+      <c r="T6">
+        <v>0.78910999999999998</v>
+      </c>
+      <c r="U6">
+        <v>0.77076999999999996</v>
+      </c>
+      <c r="V6">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="W6">
+        <v>0.77</v>
+      </c>
+      <c r="X6">
+        <v>0.77666999999999997</v>
+      </c>
+      <c r="Y6">
+        <v>0.74739</v>
+      </c>
+      <c r="Z6">
+        <v>0.76858000000000004</v>
+      </c>
+      <c r="AA6">
+        <v>0.77624000000000004</v>
+      </c>
+      <c r="AB6">
+        <v>0.78986000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>0.77800999999999998</v>
+      </c>
+      <c r="AD6">
+        <v>0.78258000000000005</v>
+      </c>
+      <c r="AE6">
+        <v>0.76941000000000004</v>
+      </c>
+      <c r="AF6">
+        <v>0.78657999999999995</v>
+      </c>
+      <c r="AG6">
+        <v>0.75451999999999997</v>
+      </c>
+      <c r="AH6">
+        <v>0.74916000000000005</v>
+      </c>
+      <c r="AI6">
+        <v>0.75866999999999996</v>
+      </c>
+      <c r="AJ6">
+        <v>0.74300999999999995</v>
+      </c>
+      <c r="AK6">
+        <v>0.77317000000000002</v>
+      </c>
+      <c r="AL6">
+        <v>0.77678000000000003</v>
+      </c>
+      <c r="AM6">
+        <v>0.77522999999999997</v>
+      </c>
+      <c r="AN6">
+        <v>0.74607000000000001</v>
+      </c>
+      <c r="AO6">
+        <v>0.76427999999999996</v>
+      </c>
+      <c r="AP6">
+        <v>0.76497000000000004</v>
+      </c>
+      <c r="AQ6">
+        <v>0.75810999999999995</v>
+      </c>
+      <c r="AR6">
+        <v>0.76815999999999995</v>
+      </c>
+      <c r="AS6">
+        <v>0.76293</v>
+      </c>
+      <c r="AT6">
+        <v>0.75075000000000003</v>
+      </c>
+      <c r="AU6">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="AV6">
+        <v>0.77497000000000005</v>
+      </c>
+      <c r="AW6">
+        <v>0.78130999999999995</v>
+      </c>
+      <c r="AX6">
+        <v>0.77963000000000005</v>
+      </c>
+      <c r="AY6">
+        <v>0.78817999999999999</v>
+      </c>
+      <c r="AZ6">
+        <v>0.78364</v>
+      </c>
+      <c r="BA6">
+        <v>0.79029000000000005</v>
+      </c>
+      <c r="BB6">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="BC6">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="BD6">
+        <v>0.77703999999999995</v>
+      </c>
+      <c r="BE6">
+        <v>0.75014999999999998</v>
+      </c>
+      <c r="BF6">
+        <v>0.77861000000000002</v>
+      </c>
+      <c r="BG6">
+        <v>0.7671</v>
+      </c>
+      <c r="BH6">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="BI6">
+        <v>0.76126000000000005</v>
+      </c>
+      <c r="BJ6">
+        <v>0.77342</v>
+      </c>
+      <c r="BK6">
+        <v>0.77231000000000005</v>
+      </c>
+      <c r="BL6">
+        <v>0.74190999999999996</v>
+      </c>
+      <c r="BM6">
+        <v>0.77432000000000001</v>
+      </c>
+      <c r="BN6">
+        <v>0.7722</v>
+      </c>
+      <c r="BO6">
+        <v>0.78978000000000004</v>
+      </c>
+      <c r="BP6">
+        <v>0.73189000000000004</v>
+      </c>
+      <c r="BQ6">
+        <v>0.77668999999999999</v>
+      </c>
+      <c r="BR6">
+        <v>0.7641</v>
+      </c>
+      <c r="BS6">
+        <v>0.76224000000000003</v>
+      </c>
+      <c r="BT6">
+        <v>0.79008999999999996</v>
+      </c>
+      <c r="BU6">
+        <v>0.75976999999999995</v>
+      </c>
+      <c r="BV6">
+        <v>0.76132999999999995</v>
+      </c>
+      <c r="BW6">
+        <v>0.79301999999999995</v>
+      </c>
+      <c r="BX6">
+        <v>0.76148000000000005</v>
+      </c>
+      <c r="BY6">
+        <v>0.76768999999999998</v>
+      </c>
+      <c r="BZ6">
+        <v>0.79313</v>
+      </c>
+      <c r="CA6">
+        <v>0.76887000000000005</v>
+      </c>
+      <c r="CB6">
+        <v>0.78476999999999997</v>
+      </c>
+      <c r="CC6">
+        <v>0.77278000000000002</v>
+      </c>
+      <c r="CD6">
+        <v>0.76968999999999999</v>
+      </c>
+      <c r="CE6">
+        <v>0.75419999999999998</v>
+      </c>
+      <c r="CF6">
+        <v>0.74151999999999996</v>
+      </c>
+      <c r="CG6">
+        <v>0.77336000000000005</v>
+      </c>
+      <c r="CH6">
+        <v>0.76400999999999997</v>
+      </c>
+      <c r="CI6">
+        <v>0.76961000000000002</v>
+      </c>
+      <c r="CJ6">
+        <v>0.75277000000000005</v>
+      </c>
+      <c r="CK6">
+        <v>0.76485000000000003</v>
+      </c>
+      <c r="CL6">
+        <v>0.7611</v>
+      </c>
+      <c r="CM6">
+        <v>0.80149000000000004</v>
+      </c>
+      <c r="CN6">
+        <v>0.77112999999999998</v>
+      </c>
+      <c r="CO6">
+        <v>0.77815000000000001</v>
+      </c>
+      <c r="CP6">
+        <v>0.77327999999999997</v>
+      </c>
+      <c r="CQ6">
+        <v>0.76032</v>
+      </c>
+      <c r="CR6">
+        <v>0.78163000000000005</v>
+      </c>
+      <c r="CS6">
+        <v>0.75327</v>
+      </c>
+      <c r="CT6">
+        <v>0.75858999999999999</v>
+      </c>
+      <c r="CU6">
+        <v>0.77017999999999998</v>
+      </c>
+      <c r="CV6">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="CW6">
+        <v>0.76788239999999941</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.77668999999999999</v>
-      </c>
-      <c r="B6">
-        <v>0.76334999999999997</v>
-      </c>
-      <c r="C6">
-        <v>0.77001999999999993</v>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.73836000000000002</v>
+      </c>
+      <c r="B7">
+        <v>0.77924000000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.76076999999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.77854000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.77688999999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.73597000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.76746999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.77085999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.77071999999999996</v>
+      </c>
+      <c r="J7">
+        <v>0.75734000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.75394000000000005</v>
+      </c>
+      <c r="L7">
+        <v>0.76136999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.74395</v>
+      </c>
+      <c r="N7">
+        <v>0.76880999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.76637999999999995</v>
+      </c>
+      <c r="P7">
+        <v>0.76766999999999996</v>
+      </c>
+      <c r="Q7">
+        <v>0.76676999999999995</v>
+      </c>
+      <c r="R7">
+        <v>0.77941000000000005</v>
+      </c>
+      <c r="S7">
+        <v>0.75165999999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.76263999999999998</v>
+      </c>
+      <c r="U7">
+        <v>0.74939</v>
+      </c>
+      <c r="V7">
+        <v>0.75544</v>
+      </c>
+      <c r="W7">
+        <v>0.77473999999999998</v>
+      </c>
+      <c r="X7">
+        <v>0.75097999999999998</v>
+      </c>
+      <c r="Y7">
+        <v>0.73660999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.75016000000000005</v>
+      </c>
+      <c r="AA7">
+        <v>0.73762000000000005</v>
+      </c>
+      <c r="AB7">
+        <v>0.77947999999999995</v>
+      </c>
+      <c r="AC7">
+        <v>0.74770999999999999</v>
+      </c>
+      <c r="AD7">
+        <v>0.78461000000000003</v>
+      </c>
+      <c r="AE7">
+        <v>0.79122000000000003</v>
+      </c>
+      <c r="AF7">
+        <v>0.7702</v>
+      </c>
+      <c r="AG7">
+        <v>0.75731999999999999</v>
+      </c>
+      <c r="AH7">
+        <v>0.78256000000000003</v>
+      </c>
+      <c r="AI7">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>0.76537999999999995</v>
+      </c>
+      <c r="AK7">
+        <v>0.75644999999999996</v>
+      </c>
+      <c r="AL7">
+        <v>0.77202000000000004</v>
+      </c>
+      <c r="AM7">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="AN7">
+        <v>0.74016000000000004</v>
+      </c>
+      <c r="AO7">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="AP7">
+        <v>0.76293999999999995</v>
+      </c>
+      <c r="AQ7">
+        <v>0.76307999999999998</v>
+      </c>
+      <c r="AR7">
+        <v>0.74067000000000005</v>
+      </c>
+      <c r="AS7">
+        <v>0.79171999999999998</v>
+      </c>
+      <c r="AT7">
+        <v>0.74280999999999997</v>
+      </c>
+      <c r="AU7">
+        <v>0.77002999999999999</v>
+      </c>
+      <c r="AV7">
+        <v>0.77037999999999995</v>
+      </c>
+      <c r="AW7">
+        <v>0.75455000000000005</v>
+      </c>
+      <c r="AX7">
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="AY7">
+        <v>0.75205999999999995</v>
+      </c>
+      <c r="AZ7">
+        <v>0.77466000000000002</v>
+      </c>
+      <c r="BA7">
+        <v>0.75551000000000001</v>
+      </c>
+      <c r="BB7">
+        <v>0.77127999999999997</v>
+      </c>
+      <c r="BC7">
+        <v>0.76634000000000002</v>
+      </c>
+      <c r="BD7">
+        <v>0.75161</v>
+      </c>
+      <c r="BE7">
+        <v>0.76007000000000002</v>
+      </c>
+      <c r="BF7">
+        <v>0.75275999999999998</v>
+      </c>
+      <c r="BG7">
+        <v>0.75141000000000002</v>
+      </c>
+      <c r="BH7">
+        <v>0.76805999999999996</v>
+      </c>
+      <c r="BI7">
+        <v>0.77661999999999998</v>
+      </c>
+      <c r="BJ7">
+        <v>0.7681</v>
+      </c>
+      <c r="BK7">
+        <v>0.77239000000000002</v>
+      </c>
+      <c r="BL7">
+        <v>0.77412000000000003</v>
+      </c>
+      <c r="BM7">
+        <v>0.76724000000000003</v>
+      </c>
+      <c r="BN7">
+        <v>0.75890999999999997</v>
+      </c>
+      <c r="BO7">
+        <v>0.76258000000000004</v>
+      </c>
+      <c r="BP7">
+        <v>0.72199000000000002</v>
+      </c>
+      <c r="BQ7">
+        <v>0.76509000000000005</v>
+      </c>
+      <c r="BR7">
+        <v>0.78968000000000005</v>
+      </c>
+      <c r="BS7">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="BT7">
+        <v>0.77122999999999997</v>
+      </c>
+      <c r="BU7">
+        <v>0.74082000000000003</v>
+      </c>
+      <c r="BV7">
+        <v>0.77207999999999999</v>
+      </c>
+      <c r="BW7">
+        <v>0.75695999999999997</v>
+      </c>
+      <c r="BX7">
+        <v>0.76385999999999998</v>
+      </c>
+      <c r="BY7">
+        <v>0.77227000000000001</v>
+      </c>
+      <c r="BZ7">
+        <v>0.7742</v>
+      </c>
+      <c r="CA7">
+        <v>0.75373000000000001</v>
+      </c>
+      <c r="CB7">
+        <v>0.78346000000000005</v>
+      </c>
+      <c r="CC7">
+        <v>0.73316000000000003</v>
+      </c>
+      <c r="CD7">
+        <v>0.76422000000000001</v>
+      </c>
+      <c r="CE7">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="CF7">
+        <v>0.74895</v>
+      </c>
+      <c r="CG7">
+        <v>0.78520999999999996</v>
+      </c>
+      <c r="CH7">
+        <v>0.75688</v>
+      </c>
+      <c r="CI7">
+        <v>0.78405000000000002</v>
+      </c>
+      <c r="CJ7">
+        <v>0.75492000000000004</v>
+      </c>
+      <c r="CK7">
+        <v>0.76476</v>
+      </c>
+      <c r="CL7">
+        <v>0.76990999999999998</v>
+      </c>
+      <c r="CM7">
+        <v>0.76085999999999998</v>
+      </c>
+      <c r="CN7">
+        <v>0.76692000000000005</v>
+      </c>
+      <c r="CO7">
+        <v>0.75412999999999997</v>
+      </c>
+      <c r="CP7">
+        <v>0.77429000000000003</v>
+      </c>
+      <c r="CQ7">
+        <v>0.75394000000000005</v>
+      </c>
+      <c r="CR7">
+        <v>0.77102000000000004</v>
+      </c>
+      <c r="CS7">
+        <v>0.76861000000000002</v>
+      </c>
+      <c r="CT7">
+        <v>0.7429</v>
+      </c>
+      <c r="CU7">
+        <v>0.76663000000000003</v>
+      </c>
+      <c r="CV7">
+        <v>0.75348999999999999</v>
+      </c>
+      <c r="CW7">
+        <v>0.76266629999999969</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.75658000000000003</v>
-      </c>
-      <c r="B7">
-        <v>0.76417000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.76037500000000002</v>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.76278999999999997</v>
+      </c>
+      <c r="B8">
+        <v>0.73541999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.76797000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.75021000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.76505999999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.74817</v>
+      </c>
+      <c r="G8">
+        <v>0.73489000000000004</v>
+      </c>
+      <c r="H8">
+        <v>0.75673000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.75202000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.76295999999999997</v>
+      </c>
+      <c r="K8">
+        <v>0.75482000000000005</v>
+      </c>
+      <c r="L8">
+        <v>0.75017999999999996</v>
+      </c>
+      <c r="M8">
+        <v>0.77278999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.76351000000000002</v>
+      </c>
+      <c r="O8">
+        <v>0.75105999999999995</v>
+      </c>
+      <c r="P8">
+        <v>0.75707999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>0.75727999999999995</v>
+      </c>
+      <c r="R8">
+        <v>0.73187999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.74999000000000005</v>
+      </c>
+      <c r="T8">
+        <v>0.74738000000000004</v>
+      </c>
+      <c r="U8">
+        <v>0.75378999999999996</v>
+      </c>
+      <c r="V8">
+        <v>0.79059000000000001</v>
+      </c>
+      <c r="W8">
+        <v>0.78939000000000004</v>
+      </c>
+      <c r="X8">
+        <v>0.74973000000000001</v>
+      </c>
+      <c r="Y8">
+        <v>0.77022999999999997</v>
+      </c>
+      <c r="Z8">
+        <v>0.75041000000000002</v>
+      </c>
+      <c r="AA8">
+        <v>0.73917999999999995</v>
+      </c>
+      <c r="AB8">
+        <v>0.74719000000000002</v>
+      </c>
+      <c r="AC8">
+        <v>0.76485999999999998</v>
+      </c>
+      <c r="AD8">
+        <v>0.74309000000000003</v>
+      </c>
+      <c r="AE8">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="AF8">
+        <v>0.75070999999999999</v>
+      </c>
+      <c r="AG8">
+        <v>0.72760999999999998</v>
+      </c>
+      <c r="AH8">
+        <v>0.75812999999999997</v>
+      </c>
+      <c r="AI8">
+        <v>0.75866</v>
+      </c>
+      <c r="AJ8">
+        <v>0.74485999999999997</v>
+      </c>
+      <c r="AK8">
+        <v>0.75851999999999997</v>
+      </c>
+      <c r="AL8">
+        <v>0.74604999999999999</v>
+      </c>
+      <c r="AM8">
+        <v>0.77576000000000001</v>
+      </c>
+      <c r="AN8">
+        <v>0.72933000000000003</v>
+      </c>
+      <c r="AO8">
+        <v>0.75797999999999999</v>
+      </c>
+      <c r="AP8">
+        <v>0.77163999999999999</v>
+      </c>
+      <c r="AQ8">
+        <v>0.75177000000000005</v>
+      </c>
+      <c r="AR8">
+        <v>0.75710999999999995</v>
+      </c>
+      <c r="AS8">
+        <v>0.77371999999999996</v>
+      </c>
+      <c r="AT8">
+        <v>0.76685999999999999</v>
+      </c>
+      <c r="AU8">
+        <v>0.78407000000000004</v>
+      </c>
+      <c r="AV8">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="AW8">
+        <v>0.75204000000000004</v>
+      </c>
+      <c r="AX8">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="AY8">
+        <v>0.76121000000000005</v>
+      </c>
+      <c r="AZ8">
+        <v>0.74448999999999999</v>
+      </c>
+      <c r="BA8">
+        <v>0.76558999999999999</v>
+      </c>
+      <c r="BB8">
+        <v>0.75446000000000002</v>
+      </c>
+      <c r="BC8">
+        <v>0.73287999999999998</v>
+      </c>
+      <c r="BD8">
+        <v>0.77122999999999997</v>
+      </c>
+      <c r="BE8">
+        <v>0.75004999999999999</v>
+      </c>
+      <c r="BF8">
+        <v>0.76985999999999999</v>
+      </c>
+      <c r="BG8">
+        <v>0.75031000000000003</v>
+      </c>
+      <c r="BH8">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="BI8">
+        <v>0.73668999999999996</v>
+      </c>
+      <c r="BJ8">
+        <v>0.74861</v>
+      </c>
+      <c r="BK8">
+        <v>0.74675999999999998</v>
+      </c>
+      <c r="BL8">
+        <v>0.75036999999999998</v>
+      </c>
+      <c r="BM8">
+        <v>0.75441000000000003</v>
+      </c>
+      <c r="BN8">
+        <v>0.75487000000000004</v>
+      </c>
+      <c r="BO8">
+        <v>0.75209000000000004</v>
+      </c>
+      <c r="BP8">
+        <v>0.76719000000000004</v>
+      </c>
+      <c r="BQ8">
+        <v>0.77788000000000002</v>
+      </c>
+      <c r="BR8">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="BS8">
+        <v>0.75209999999999999</v>
+      </c>
+      <c r="BT8">
+        <v>0.74994000000000005</v>
+      </c>
+      <c r="BU8">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="BV8">
+        <v>0.74770999999999999</v>
+      </c>
+      <c r="BW8">
+        <v>0.76482000000000006</v>
+      </c>
+      <c r="BX8">
+        <v>0.75248999999999999</v>
+      </c>
+      <c r="BY8">
+        <v>0.76600999999999997</v>
+      </c>
+      <c r="BZ8">
+        <v>0.78646000000000005</v>
+      </c>
+      <c r="CA8">
+        <v>0.75183999999999995</v>
+      </c>
+      <c r="CB8">
+        <v>0.73104000000000002</v>
+      </c>
+      <c r="CC8">
+        <v>0.75122</v>
+      </c>
+      <c r="CD8">
+        <v>0.75714999999999999</v>
+      </c>
+      <c r="CE8">
+        <v>0.76014000000000004</v>
+      </c>
+      <c r="CF8">
+        <v>0.74736000000000002</v>
+      </c>
+      <c r="CG8">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="CH8">
+        <v>0.76578999999999997</v>
+      </c>
+      <c r="CI8">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="CJ8">
+        <v>0.76475000000000004</v>
+      </c>
+      <c r="CK8">
+        <v>0.76437999999999995</v>
+      </c>
+      <c r="CL8">
+        <v>0.75139999999999996</v>
+      </c>
+      <c r="CM8">
+        <v>0.75910999999999995</v>
+      </c>
+      <c r="CN8">
+        <v>0.75836999999999999</v>
+      </c>
+      <c r="CO8">
+        <v>0.78537999999999997</v>
+      </c>
+      <c r="CP8">
+        <v>0.77048000000000005</v>
+      </c>
+      <c r="CQ8">
+        <v>0.75812000000000002</v>
+      </c>
+      <c r="CR8">
+        <v>0.76554</v>
+      </c>
+      <c r="CS8">
+        <v>0.75578000000000001</v>
+      </c>
+      <c r="CT8">
+        <v>0.74753999999999998</v>
+      </c>
+      <c r="CU8">
+        <v>0.76565000000000005</v>
+      </c>
+      <c r="CV8">
+        <v>0.77051000000000003</v>
+      </c>
+      <c r="CW8">
+        <v>0.75701620000000036</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.74480000000000002</v>
-      </c>
-      <c r="B8">
-        <v>0.75395000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.74937500000000001</v>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.77264999999999995</v>
+      </c>
+      <c r="B9">
+        <v>0.76898999999999995</v>
+      </c>
+      <c r="C9">
+        <v>0.74931000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.76217000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.75915999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.7429</v>
+      </c>
+      <c r="G9">
+        <v>0.75461</v>
+      </c>
+      <c r="H9">
+        <v>0.74678</v>
+      </c>
+      <c r="I9">
+        <v>0.76773000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.74485999999999997</v>
+      </c>
+      <c r="K9">
+        <v>0.74663999999999997</v>
+      </c>
+      <c r="L9">
+        <v>0.74658999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.75778999999999996</v>
+      </c>
+      <c r="N9">
+        <v>0.74560999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.75915999999999995</v>
+      </c>
+      <c r="P9">
+        <v>0.73646</v>
+      </c>
+      <c r="Q9">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="R9">
+        <v>0.75899000000000005</v>
+      </c>
+      <c r="S9">
+        <v>0.74961</v>
+      </c>
+      <c r="T9">
+        <v>0.77841000000000005</v>
+      </c>
+      <c r="U9">
+        <v>0.75827</v>
+      </c>
+      <c r="V9">
+        <v>0.76158999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.76541999999999999</v>
+      </c>
+      <c r="X9">
+        <v>0.76224000000000003</v>
+      </c>
+      <c r="Y9">
+        <v>0.77551000000000003</v>
+      </c>
+      <c r="Z9">
+        <v>0.73736999999999997</v>
+      </c>
+      <c r="AA9">
+        <v>0.77478999999999998</v>
+      </c>
+      <c r="AB9">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="AC9">
+        <v>0.75868999999999998</v>
+      </c>
+      <c r="AD9">
+        <v>0.76088999999999996</v>
+      </c>
+      <c r="AE9">
+        <v>0.75299000000000005</v>
+      </c>
+      <c r="AF9">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="AG9">
+        <v>0.77048000000000005</v>
+      </c>
+      <c r="AH9">
+        <v>0.75661999999999996</v>
+      </c>
+      <c r="AI9">
+        <v>0.77498999999999996</v>
+      </c>
+      <c r="AJ9">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="AK9">
+        <v>0.74385999999999997</v>
+      </c>
+      <c r="AL9">
+        <v>0.74904000000000004</v>
+      </c>
+      <c r="AM9">
+        <v>0.76354</v>
+      </c>
+      <c r="AN9">
+        <v>0.74816000000000005</v>
+      </c>
+      <c r="AO9">
+        <v>0.77610000000000001</v>
+      </c>
+      <c r="AP9">
+        <v>0.75526000000000004</v>
+      </c>
+      <c r="AQ9">
+        <v>0.76956000000000002</v>
+      </c>
+      <c r="AR9">
+        <v>0.75275000000000003</v>
+      </c>
+      <c r="AS9">
+        <v>0.76456999999999997</v>
+      </c>
+      <c r="AT9">
+        <v>0.75392999999999999</v>
+      </c>
+      <c r="AU9">
+        <v>0.77769999999999995</v>
+      </c>
+      <c r="AV9">
+        <v>0.77753000000000005</v>
+      </c>
+      <c r="AW9">
+        <v>0.75717000000000001</v>
+      </c>
+      <c r="AX9">
+        <v>0.76000999999999996</v>
+      </c>
+      <c r="AY9">
+        <v>0.73363999999999996</v>
+      </c>
+      <c r="AZ9">
+        <v>0.73265000000000002</v>
+      </c>
+      <c r="BA9">
+        <v>0.74407000000000001</v>
+      </c>
+      <c r="BB9">
+        <v>0.76127999999999996</v>
+      </c>
+      <c r="BC9">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="BD9">
+        <v>0.77019000000000004</v>
+      </c>
+      <c r="BE9">
+        <v>0.76410999999999996</v>
+      </c>
+      <c r="BF9">
+        <v>0.77673000000000003</v>
+      </c>
+      <c r="BG9">
+        <v>0.75931999999999999</v>
+      </c>
+      <c r="BH9">
+        <v>0.77412000000000003</v>
+      </c>
+      <c r="BI9">
+        <v>0.76868999999999998</v>
+      </c>
+      <c r="BJ9">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="BK9">
+        <v>0.78488000000000002</v>
+      </c>
+      <c r="BL9">
+        <v>0.76092000000000004</v>
+      </c>
+      <c r="BM9">
+        <v>0.73843000000000003</v>
+      </c>
+      <c r="BN9">
+        <v>0.75834000000000001</v>
+      </c>
+      <c r="BO9">
+        <v>0.74070999999999998</v>
+      </c>
+      <c r="BP9">
+        <v>0.75188999999999995</v>
+      </c>
+      <c r="BQ9">
+        <v>0.76122000000000001</v>
+      </c>
+      <c r="BR9">
+        <v>0.74936000000000003</v>
+      </c>
+      <c r="BS9">
+        <v>0.76241000000000003</v>
+      </c>
+      <c r="BT9">
+        <v>0.75553999999999999</v>
+      </c>
+      <c r="BU9">
+        <v>0.76554</v>
+      </c>
+      <c r="BV9">
+        <v>0.75938000000000005</v>
+      </c>
+      <c r="BW9">
+        <v>0.74814000000000003</v>
+      </c>
+      <c r="BX9">
+        <v>0.75968999999999998</v>
+      </c>
+      <c r="BY9">
+        <v>0.73677999999999999</v>
+      </c>
+      <c r="BZ9">
+        <v>0.76137999999999995</v>
+      </c>
+      <c r="CA9">
+        <v>0.75863999999999998</v>
+      </c>
+      <c r="CB9">
+        <v>0.75241999999999998</v>
+      </c>
+      <c r="CC9">
+        <v>0.74814999999999998</v>
+      </c>
+      <c r="CD9">
+        <v>0.75324999999999998</v>
+      </c>
+      <c r="CE9">
+        <v>0.76251999999999998</v>
+      </c>
+      <c r="CF9">
+        <v>0.74231999999999998</v>
+      </c>
+      <c r="CG9">
+        <v>0.74221000000000004</v>
+      </c>
+      <c r="CH9">
+        <v>0.75114999999999998</v>
+      </c>
+      <c r="CI9">
+        <v>0.74880999999999998</v>
+      </c>
+      <c r="CJ9">
+        <v>0.74751999999999996</v>
+      </c>
+      <c r="CK9">
+        <v>0.74895999999999996</v>
+      </c>
+      <c r="CL9">
+        <v>0.73914000000000002</v>
+      </c>
+      <c r="CM9">
+        <v>0.75327999999999995</v>
+      </c>
+      <c r="CN9">
+        <v>0.76578000000000002</v>
+      </c>
+      <c r="CO9">
+        <v>0.76378999999999997</v>
+      </c>
+      <c r="CP9">
+        <v>0.73695999999999995</v>
+      </c>
+      <c r="CQ9">
+        <v>0.73914999999999997</v>
+      </c>
+      <c r="CR9">
+        <v>0.75985000000000003</v>
+      </c>
+      <c r="CS9">
+        <v>0.75558999999999998</v>
+      </c>
+      <c r="CT9">
+        <v>0.76780999999999999</v>
+      </c>
+      <c r="CU9">
+        <v>0.74090999999999996</v>
+      </c>
+      <c r="CV9">
+        <v>0.74687000000000003</v>
+      </c>
+      <c r="CW9">
+        <v>0.75721040000000017</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.74827999999999995</v>
-      </c>
-      <c r="B9">
-        <v>0.77076999999999996</v>
-      </c>
-      <c r="C9">
-        <v>0.75952500000000001</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="B10">
+        <v>0.76512000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.73333999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.74951999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.73885999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.77122999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.75455000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.72996000000000005</v>
+      </c>
+      <c r="I10">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="J10">
+        <v>0.76085000000000003</v>
+      </c>
+      <c r="K10">
+        <v>0.75451000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.73038999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.75583999999999996</v>
+      </c>
+      <c r="N10">
+        <v>0.73914999999999997</v>
+      </c>
+      <c r="O10">
+        <v>0.76348000000000005</v>
+      </c>
+      <c r="P10">
+        <v>0.77051000000000003</v>
+      </c>
+      <c r="Q10">
+        <v>0.75392000000000003</v>
+      </c>
+      <c r="R10">
+        <v>0.75697000000000003</v>
+      </c>
+      <c r="S10">
+        <v>0.74038999999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.74265000000000003</v>
+      </c>
+      <c r="U10">
+        <v>0.75588</v>
+      </c>
+      <c r="V10">
+        <v>0.72399000000000002</v>
+      </c>
+      <c r="W10">
+        <v>0.72404000000000002</v>
+      </c>
+      <c r="X10">
+        <v>0.74277000000000004</v>
+      </c>
+      <c r="Y10">
+        <v>0.74129</v>
+      </c>
+      <c r="Z10">
+        <v>0.74775000000000003</v>
+      </c>
+      <c r="AA10">
+        <v>0.74941999999999998</v>
+      </c>
+      <c r="AB10">
+        <v>0.75931000000000004</v>
+      </c>
+      <c r="AC10">
+        <v>0.77146000000000003</v>
+      </c>
+      <c r="AD10">
+        <v>0.73973999999999995</v>
+      </c>
+      <c r="AE10">
+        <v>0.73873999999999995</v>
+      </c>
+      <c r="AF10">
+        <v>0.75107000000000002</v>
+      </c>
+      <c r="AG10">
+        <v>0.75541000000000003</v>
+      </c>
+      <c r="AH10">
+        <v>0.75876999999999994</v>
+      </c>
+      <c r="AI10">
+        <v>0.75682000000000005</v>
+      </c>
+      <c r="AJ10">
+        <v>0.76451999999999998</v>
+      </c>
+      <c r="AK10">
+        <v>0.72980999999999996</v>
+      </c>
+      <c r="AL10">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="AM10">
+        <v>0.72958000000000001</v>
+      </c>
+      <c r="AN10">
+        <v>0.74195</v>
+      </c>
+      <c r="AO10">
+        <v>0.76456000000000002</v>
+      </c>
+      <c r="AP10">
+        <v>0.72984000000000004</v>
+      </c>
+      <c r="AQ10">
+        <v>0.75085999999999997</v>
+      </c>
+      <c r="AR10">
+        <v>0.74382000000000004</v>
+      </c>
+      <c r="AS10">
+        <v>0.74804999999999999</v>
+      </c>
+      <c r="AT10">
+        <v>0.72882999999999998</v>
+      </c>
+      <c r="AU10">
+        <v>0.75914000000000004</v>
+      </c>
+      <c r="AV10">
+        <v>0.73526000000000002</v>
+      </c>
+      <c r="AW10">
+        <v>0.75190999999999997</v>
+      </c>
+      <c r="AX10">
+        <v>0.75939000000000001</v>
+      </c>
+      <c r="AY10">
+        <v>0.72823000000000004</v>
+      </c>
+      <c r="AZ10">
+        <v>0.75056</v>
+      </c>
+      <c r="BA10">
+        <v>0.75692000000000004</v>
+      </c>
+      <c r="BB10">
+        <v>0.77405999999999997</v>
+      </c>
+      <c r="BC10">
+        <v>0.75973999999999997</v>
+      </c>
+      <c r="BD10">
+        <v>0.75988999999999995</v>
+      </c>
+      <c r="BE10">
+        <v>0.75526000000000004</v>
+      </c>
+      <c r="BF10">
+        <v>0.75151000000000001</v>
+      </c>
+      <c r="BG10">
+        <v>0.73814999999999997</v>
+      </c>
+      <c r="BH10">
+        <v>0.75756000000000001</v>
+      </c>
+      <c r="BI10">
+        <v>0.75768999999999997</v>
+      </c>
+      <c r="BJ10">
+        <v>0.73367000000000004</v>
+      </c>
+      <c r="BK10">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="BL10">
+        <v>0.72941</v>
+      </c>
+      <c r="BM10">
+        <v>0.75058000000000002</v>
+      </c>
+      <c r="BN10">
+        <v>0.78998999999999997</v>
+      </c>
+      <c r="BO10">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="BP10">
+        <v>0.75273000000000001</v>
+      </c>
+      <c r="BQ10">
+        <v>0.77090999999999998</v>
+      </c>
+      <c r="BR10">
+        <v>0.74717999999999996</v>
+      </c>
+      <c r="BS10">
+        <v>0.76366000000000001</v>
+      </c>
+      <c r="BT10">
+        <v>0.73348000000000002</v>
+      </c>
+      <c r="BU10">
+        <v>0.74234999999999995</v>
+      </c>
+      <c r="BV10">
+        <v>0.75127999999999995</v>
+      </c>
+      <c r="BW10">
+        <v>0.74134999999999995</v>
+      </c>
+      <c r="BX10">
+        <v>0.76537999999999995</v>
+      </c>
+      <c r="BY10">
+        <v>0.75022</v>
+      </c>
+      <c r="BZ10">
+        <v>0.74468000000000001</v>
+      </c>
+      <c r="CA10">
+        <v>0.73392999999999997</v>
+      </c>
+      <c r="CB10">
+        <v>0.74982000000000004</v>
+      </c>
+      <c r="CC10">
+        <v>0.76780999999999999</v>
+      </c>
+      <c r="CD10">
+        <v>0.77281999999999995</v>
+      </c>
+      <c r="CE10">
+        <v>0.74728000000000006</v>
+      </c>
+      <c r="CF10">
+        <v>0.72558999999999996</v>
+      </c>
+      <c r="CG10">
+        <v>0.77002999999999999</v>
+      </c>
+      <c r="CH10">
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="CI10">
+        <v>0.72358999999999996</v>
+      </c>
+      <c r="CJ10">
+        <v>0.74741000000000002</v>
+      </c>
+      <c r="CK10">
+        <v>0.76471</v>
+      </c>
+      <c r="CL10">
+        <v>0.75387000000000004</v>
+      </c>
+      <c r="CM10">
+        <v>0.77678999999999998</v>
+      </c>
+      <c r="CN10">
+        <v>0.73821999999999999</v>
+      </c>
+      <c r="CO10">
+        <v>0.77978999999999998</v>
+      </c>
+      <c r="CP10">
+        <v>0.74389000000000005</v>
+      </c>
+      <c r="CQ10">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="CR10">
+        <v>0.74180000000000001</v>
+      </c>
+      <c r="CS10">
+        <v>0.75263000000000002</v>
+      </c>
+      <c r="CT10">
+        <v>0.74555000000000005</v>
+      </c>
+      <c r="CU10">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="CV10">
+        <v>0.75639999999999996</v>
+      </c>
+      <c r="CW10">
+        <v>0.75034789999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.76122000000000001</v>
-      </c>
-      <c r="B10">
-        <v>0.74380999999999997</v>
-      </c>
-      <c r="C10">
-        <v>0.75251500000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.77727999999999997</v>
+        <v>0.75358000000000003</v>
       </c>
       <c r="B11">
-        <v>0.75217999999999996</v>
+        <v>0.75185999999999997</v>
       </c>
       <c r="C11">
-        <v>0.76472999999999991</v>
+        <v>0.73551999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.73807999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.76810999999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.74685000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.74973999999999996</v>
+      </c>
+      <c r="J11">
+        <v>0.73304999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.74658999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.73134999999999994</v>
+      </c>
+      <c r="M11">
+        <v>0.75614000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.74090999999999996</v>
+      </c>
+      <c r="O11">
+        <v>0.75424999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="Q11">
+        <v>0.74487000000000003</v>
+      </c>
+      <c r="R11">
+        <v>0.74733000000000005</v>
+      </c>
+      <c r="S11">
+        <v>0.73675999999999997</v>
+      </c>
+      <c r="T11">
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="U11">
+        <v>0.75702000000000003</v>
+      </c>
+      <c r="V11">
+        <v>0.76468999999999998</v>
+      </c>
+      <c r="W11">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="X11">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="Y11">
+        <v>0.74944999999999995</v>
+      </c>
+      <c r="Z11">
+        <v>0.73292999999999997</v>
+      </c>
+      <c r="AA11">
+        <v>0.74029</v>
+      </c>
+      <c r="AB11">
+        <v>0.73831999999999998</v>
+      </c>
+      <c r="AC11">
+        <v>0.76648000000000005</v>
+      </c>
+      <c r="AD11">
+        <v>0.74502999999999997</v>
+      </c>
+      <c r="AE11">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="AF11">
+        <v>0.76317000000000002</v>
+      </c>
+      <c r="AG11">
+        <v>0.73897000000000002</v>
+      </c>
+      <c r="AH11">
+        <v>0.75058999999999998</v>
+      </c>
+      <c r="AI11">
+        <v>0.74019000000000001</v>
+      </c>
+      <c r="AJ11">
+        <v>0.72148000000000001</v>
+      </c>
+      <c r="AK11">
+        <v>0.74636000000000002</v>
+      </c>
+      <c r="AL11">
+        <v>0.74204000000000003</v>
+      </c>
+      <c r="AM11">
+        <v>0.75366999999999995</v>
+      </c>
+      <c r="AN11">
+        <v>0.73863999999999996</v>
+      </c>
+      <c r="AO11">
+        <v>0.73504000000000003</v>
+      </c>
+      <c r="AP11">
+        <v>0.74502000000000002</v>
+      </c>
+      <c r="AQ11">
+        <v>0.73914000000000002</v>
+      </c>
+      <c r="AR11">
+        <v>0.75975999999999999</v>
+      </c>
+      <c r="AS11">
+        <v>0.73329</v>
+      </c>
+      <c r="AT11">
+        <v>0.75177000000000005</v>
+      </c>
+      <c r="AU11">
+        <v>0.76587000000000005</v>
+      </c>
+      <c r="AV11">
+        <v>0.78000999999999998</v>
+      </c>
+      <c r="AW11">
+        <v>0.76668000000000003</v>
+      </c>
+      <c r="AX11">
+        <v>0.74336999999999998</v>
+      </c>
+      <c r="AY11">
+        <v>0.74334</v>
+      </c>
+      <c r="AZ11">
+        <v>0.77415999999999996</v>
+      </c>
+      <c r="BA11">
+        <v>0.73595999999999995</v>
+      </c>
+      <c r="BB11">
+        <v>0.75744</v>
+      </c>
+      <c r="BC11">
+        <v>0.74953000000000003</v>
+      </c>
+      <c r="BD11">
+        <v>0.74204999999999999</v>
+      </c>
+      <c r="BE11">
+        <v>0.75344999999999995</v>
+      </c>
+      <c r="BF11">
+        <v>0.74731999999999998</v>
+      </c>
+      <c r="BG11">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="BH11">
+        <v>0.73401000000000005</v>
+      </c>
+      <c r="BI11">
+        <v>0.73897000000000002</v>
+      </c>
+      <c r="BJ11">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="BK11">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="BL11">
+        <v>0.76175999999999999</v>
+      </c>
+      <c r="BM11">
+        <v>0.76010999999999995</v>
+      </c>
+      <c r="BN11">
+        <v>0.74095999999999995</v>
+      </c>
+      <c r="BO11">
+        <v>0.74207999999999996</v>
+      </c>
+      <c r="BP11">
+        <v>0.71353999999999995</v>
+      </c>
+      <c r="BQ11">
+        <v>0.72911999999999999</v>
+      </c>
+      <c r="BR11">
+        <v>0.74309000000000003</v>
+      </c>
+      <c r="BS11">
+        <v>0.76780999999999999</v>
+      </c>
+      <c r="BT11">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="BU11">
+        <v>0.73040000000000005</v>
+      </c>
+      <c r="BV11">
+        <v>0.77695000000000003</v>
+      </c>
+      <c r="BW11">
+        <v>0.72552000000000005</v>
+      </c>
+      <c r="BX11">
+        <v>0.74473</v>
+      </c>
+      <c r="BY11">
+        <v>0.75539000000000001</v>
+      </c>
+      <c r="BZ11">
+        <v>0.72997999999999996</v>
+      </c>
+      <c r="CA11">
+        <v>0.76188999999999996</v>
+      </c>
+      <c r="CB11">
+        <v>0.75614000000000003</v>
+      </c>
+      <c r="CC11">
+        <v>0.73299000000000003</v>
+      </c>
+      <c r="CD11">
+        <v>0.73038999999999998</v>
+      </c>
+      <c r="CE11">
+        <v>0.74278999999999995</v>
+      </c>
+      <c r="CF11">
+        <v>0.76217000000000001</v>
+      </c>
+      <c r="CG11">
+        <v>0.74221999999999999</v>
+      </c>
+      <c r="CH11">
+        <v>0.73409000000000002</v>
+      </c>
+      <c r="CI11">
+        <v>0.75946999999999998</v>
+      </c>
+      <c r="CJ11">
+        <v>0.75322999999999996</v>
+      </c>
+      <c r="CK11">
+        <v>0.75592999999999999</v>
+      </c>
+      <c r="CL11">
+        <v>0.75466999999999995</v>
+      </c>
+      <c r="CM11">
+        <v>0.76565000000000005</v>
+      </c>
+      <c r="CN11">
+        <v>0.75539000000000001</v>
+      </c>
+      <c r="CO11">
+        <v>0.75310999999999995</v>
+      </c>
+      <c r="CP11">
+        <v>0.75397999999999998</v>
+      </c>
+      <c r="CQ11">
+        <v>0.74963999999999997</v>
+      </c>
+      <c r="CR11">
+        <v>0.75763999999999998</v>
+      </c>
+      <c r="CS11">
+        <v>0.75202999999999998</v>
+      </c>
+      <c r="CT11">
+        <v>0.76551999999999998</v>
+      </c>
+      <c r="CU11">
+        <v>0.74761</v>
+      </c>
+      <c r="CV11">
+        <v>0.77129000000000003</v>
+      </c>
+      <c r="CW11">
+        <v>0.74798670000000012</v>
       </c>
     </row>
   </sheetData>
